--- a/output/fit_clients/fit_round_234.xlsx
+++ b/output/fit_clients/fit_round_234.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2301977905.182343</v>
+        <v>2136579178.968482</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07603538567072983</v>
+        <v>0.1079610221425926</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02927370427880036</v>
+        <v>0.03805254159473748</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1150988988.797382</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2630401862.29715</v>
+        <v>1795850292.907036</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1840037001099067</v>
+        <v>0.1672831336562116</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03468884540578949</v>
+        <v>0.03111518126047655</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1315201068.823871</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3816184212.038763</v>
+        <v>4271382688.556358</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1043878886869537</v>
+        <v>0.1157548037710275</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03271629010869086</v>
+        <v>0.0348398355859754</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>85</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1908092107.162112</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4027383677.133183</v>
+        <v>3655080473.867266</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1009799756520947</v>
+        <v>0.08725853650673172</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03359540914112476</v>
+        <v>0.04355772843359039</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>89</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2013691840.442474</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2173485424.391774</v>
+        <v>1920502592.403324</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1113668733560511</v>
+        <v>0.1352647253699128</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0354517025999956</v>
+        <v>0.04300386563321301</v>
       </c>
       <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>40</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1086742723.004282</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2671684851.135329</v>
+        <v>2114585481.592976</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06906320497482928</v>
+        <v>0.07892330847027008</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04631536063123542</v>
+        <v>0.03052916260221199</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>72</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1335842422.027346</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3440433632.395823</v>
+        <v>3714399576.399719</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1746923107246671</v>
+        <v>0.1648153588724418</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02361835699158692</v>
+        <v>0.0220676035963174</v>
       </c>
       <c r="H8" t="b">
         <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>75</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1720216918.725716</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1925474053.760207</v>
+        <v>2105424693.360378</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1232452813655451</v>
+        <v>0.1455694251415101</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03361771645962425</v>
+        <v>0.02872775688190257</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>962737063.8091322</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4601826868.286335</v>
+        <v>4206909731.092046</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1538944647136702</v>
+        <v>0.1364167231961879</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04218858985223502</v>
+        <v>0.03313199437822331</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>99</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2300913502.604606</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3631211199.725734</v>
+        <v>3510841503.236265</v>
       </c>
       <c r="F11" t="n">
-        <v>0.157218275893238</v>
+        <v>0.1775078028673741</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04698341951114163</v>
+        <v>0.04633856147450693</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>97</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1815605586.815657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3256315825.187614</v>
+        <v>3039025700.743072</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1963091454679531</v>
+        <v>0.1949729850921783</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04173937727985066</v>
+        <v>0.05155311488284708</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>82</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1628157954.081802</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4958125777.438058</v>
+        <v>4099713589.568262</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06373237023255605</v>
+        <v>0.06944725900036521</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02764653533080162</v>
+        <v>0.02749074495012248</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>79</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2479062894.973161</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3687756491.566272</v>
+        <v>3506365157.158689</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1826235589322857</v>
+        <v>0.1188318348463137</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03053261573562146</v>
+        <v>0.03649070486175902</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>78</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1843878230.414402</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1135843103.141869</v>
+        <v>1221315512.23256</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09396803750930081</v>
+        <v>0.08725699664486936</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04647479486002405</v>
+        <v>0.04500410706684731</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>567921554.492896</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2484945111.72592</v>
+        <v>1805250246.826698</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07783336906244274</v>
+        <v>0.1140164298799348</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03840249428455889</v>
+        <v>0.03980956256467905</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>42</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1242472588.022976</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4715273732.07331</v>
+        <v>3966678311.710011</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1420472130471373</v>
+        <v>0.1714726476378196</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0379575941122193</v>
+        <v>0.0490245393732661</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>68</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2357636865.279378</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3691563083.499376</v>
+        <v>3476700222.832874</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1263273429037547</v>
+        <v>0.183314482472561</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02192748329372997</v>
+        <v>0.03449510331633916</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>77</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1845781521.903995</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1359186767.907885</v>
+        <v>1114839149.153913</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1220448636030603</v>
+        <v>0.186428616645266</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02438273708276831</v>
+        <v>0.02505689795283967</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>679593500.6325014</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1720961206.314429</v>
+        <v>2357983228.946506</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1432005944110707</v>
+        <v>0.1280878061704758</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03176814389711984</v>
+        <v>0.03095903562966418</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>35</v>
-      </c>
-      <c r="J20" t="n">
-        <v>860480659.21083</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1716937040.350836</v>
+        <v>1836389610.159696</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06639109894414043</v>
+        <v>0.08710940030741859</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04359229776361601</v>
+        <v>0.04097848500104145</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>18</v>
-      </c>
-      <c r="J21" t="n">
-        <v>858468583.2038786</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>4047715258.926046</v>
+        <v>3873924590.830523</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1049117627987679</v>
+        <v>0.1409659634231031</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04411209673337332</v>
+        <v>0.04480223282117038</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>66</v>
-      </c>
-      <c r="J22" t="n">
-        <v>2023857628.243658</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1128366034.515783</v>
+        <v>1420210423.958482</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1602073499028549</v>
+        <v>0.1281397231526631</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05332122144475875</v>
+        <v>0.03674455152686623</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>564183065.8032955</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2540503773.787602</v>
+        <v>3291715103.430829</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1083459857636994</v>
+        <v>0.1146706738854473</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03648146701534281</v>
+        <v>0.03364708776907521</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>69</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1270251953.022388</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1139208116.305416</v>
+        <v>1451901534.063964</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1135983846963105</v>
+        <v>0.1224112213376322</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02984074116415911</v>
+        <v>0.02341689742359599</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>569604090.0933691</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1417347222.92145</v>
+        <v>1069300058.821467</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1143685199308654</v>
+        <v>0.1143459158615068</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02554430935522847</v>
+        <v>0.02430157193053083</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>708673685.6514479</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4654268542.717682</v>
+        <v>3638307048.945073</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1077923158468822</v>
+        <v>0.1338981099069722</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02045654461489224</v>
+        <v>0.02346402607803113</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>56</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2327134249.023082</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2614219709.746562</v>
+        <v>3261819127.232545</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09522451005443155</v>
+        <v>0.09370062521899376</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04725673801473461</v>
+        <v>0.04564966584432831</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>76</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1307109832.591967</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5488661996.711477</v>
+        <v>4953651203.631663</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1067634546519213</v>
+        <v>0.1199889956226517</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04583027412210963</v>
+        <v>0.03443177939022359</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>104</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2744330912.048869</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2030224206.432848</v>
+        <v>1900292245.384251</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1335457759383324</v>
+        <v>0.1088051772315954</v>
       </c>
       <c r="G30" t="n">
-        <v>0.04015282484999673</v>
+        <v>0.02677676164530644</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1015112144.107017</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1403469166.525031</v>
+        <v>1417597780.790901</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1048375371313028</v>
+        <v>0.08318886552560592</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0490825039931107</v>
+        <v>0.0492305428776186</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>701734486.8124561</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1408454450.372886</v>
+        <v>1171267009.38367</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08269824539683195</v>
+        <v>0.1001487650009344</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02493149608310858</v>
+        <v>0.03577397620280638</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>704227274.5401968</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2972781613.30404</v>
+        <v>2910647113.471054</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2085819261303184</v>
+        <v>0.1486342104775119</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03839766897660984</v>
+        <v>0.03983122069118486</v>
       </c>
       <c r="H33" t="b">
         <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>68</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1486390804.603574</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1128436072.209277</v>
+        <v>1032071283.938129</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0888517443897118</v>
+        <v>0.08393524125370143</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02608865887324321</v>
+        <v>0.02723204175883218</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>564218052.8885522</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>956135557.2931238</v>
+        <v>1116868668.88518</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1108980129400259</v>
+        <v>0.1153644538027556</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03718602745441586</v>
+        <v>0.03090090594454096</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>478067806.8287901</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2457774357.583773</v>
+        <v>2293630846.728375</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1474909431506067</v>
+        <v>0.158279366664322</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02302512121289882</v>
+        <v>0.02530195144316578</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>58</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1228887204.154752</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1951162422.287265</v>
+        <v>2786559283.900788</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0676267373827157</v>
+        <v>0.1093361474312166</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02674123798892436</v>
+        <v>0.02991064045690993</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>61</v>
-      </c>
-      <c r="J37" t="n">
-        <v>975581231.7043734</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2198474335.83868</v>
+        <v>1891719369.281145</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1119209799372531</v>
+        <v>0.1083774435140109</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03756015024501501</v>
+        <v>0.02601726596643484</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1099237118.498717</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1521662277.816864</v>
+        <v>1845421912.683047</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1691586288644022</v>
+        <v>0.1368451504069699</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02396240007591843</v>
+        <v>0.02380106104756565</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>760831206.033089</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1138994888.139608</v>
+        <v>1657431148.263326</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1009201918675193</v>
+        <v>0.1590710625340311</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0495598930887196</v>
+        <v>0.04588034002731017</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>569497500.6036731</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2915554786.241749</v>
+        <v>1929522203.853729</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1603230689806611</v>
+        <v>0.1300493963311595</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0454671411951526</v>
+        <v>0.03898439228153078</v>
       </c>
       <c r="H41" t="b">
         <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>56</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1457777377.682866</v>
       </c>
     </row>
     <row r="42">
@@ -1856,22 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3607841076.485362</v>
+        <v>2795620423.389505</v>
       </c>
       <c r="F42" t="n">
-        <v>0.07955799913055839</v>
+        <v>0.1154075674037509</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04555396967321148</v>
+        <v>0.03348184736942662</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>79</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1803920540.505505</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1883727447.06356</v>
+        <v>2479950004.195953</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1930818350490014</v>
+        <v>0.1335817563956051</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02387822559618928</v>
+        <v>0.01605973225562678</v>
       </c>
       <c r="H43" t="b">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>81</v>
-      </c>
-      <c r="J43" t="n">
-        <v>941863834.1586953</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1618217656.569785</v>
+        <v>1773842335.312728</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06250165781570181</v>
+        <v>0.08529704793741096</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02458002464039506</v>
+        <v>0.03160384858217843</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>809108858.4364674</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1793708684.806992</v>
+        <v>2219212279.383452</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1366195625995416</v>
+        <v>0.176865449962292</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04613305093320431</v>
+        <v>0.04899422148992007</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>896854312.4725585</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3709223947.677628</v>
+        <v>5522268910.877432</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1426825363281363</v>
+        <v>0.1501309982286924</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04923964993305835</v>
+        <v>0.04819297094366128</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>83</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1854611926.704988</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4716373922.797956</v>
+        <v>4947669232.690473</v>
       </c>
       <c r="F47" t="n">
-        <v>0.160019110216355</v>
+        <v>0.1775841031936007</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03849557157306049</v>
+        <v>0.05662991477571905</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>63</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2358187001.144816</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3526769836.53741</v>
+        <v>3178416232.57218</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08503947206500177</v>
+        <v>0.07528898703561014</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03907960355779895</v>
+        <v>0.02358750784407073</v>
       </c>
       <c r="H48" t="b">
         <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>78</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1763384980.119448</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1963091330.419183</v>
+        <v>1965145274.461201</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1490269234668403</v>
+        <v>0.1852478099514199</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03804957904460619</v>
+        <v>0.03522629666490809</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>981545625.2117698</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3013464144.996065</v>
+        <v>3677246600.13669</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1525004178441347</v>
+        <v>0.1145313208549486</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03289387730100591</v>
+        <v>0.03575840009006034</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>80</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1506732131.360831</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1415645797.803917</v>
+        <v>1372890275.833442</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1946630892899497</v>
+        <v>0.1361062749402641</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03290854491815563</v>
+        <v>0.03553159877815398</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>707822915.5024087</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3866367774.5477</v>
+        <v>4858255783.148367</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09847789841133436</v>
+        <v>0.1301008342073829</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05682493363332801</v>
+        <v>0.04983691602189994</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>97</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1933183951.60757</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2893769146.389952</v>
+        <v>3105150838.172541</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1781833684508091</v>
+        <v>0.1887856242191325</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03403307217351634</v>
+        <v>0.03474573090939823</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>68</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1446884612.919713</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3708387386.371242</v>
+        <v>4057302762.23853</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1272644084805448</v>
+        <v>0.1170815653760746</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04720444367067781</v>
+        <v>0.04180414565000264</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>77</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1854193734.354804</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4559765305.410209</v>
+        <v>4166163897.496706</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1470332998015773</v>
+        <v>0.2068707180018643</v>
       </c>
       <c r="G55" t="n">
-        <v>0.01966105508116879</v>
+        <v>0.03031738053172603</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>61</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2279882652.295917</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1639220108.381919</v>
+        <v>1884088893.232066</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1272331280327736</v>
+        <v>0.1313389846131275</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05734388479374162</v>
+        <v>0.05742750951678996</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>819610075.8197939</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3577127440.330502</v>
+        <v>3634798253.97172</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1363425560709861</v>
+        <v>0.1554375226245411</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02177401776944466</v>
+        <v>0.02562293408047464</v>
       </c>
       <c r="H57" t="b">
         <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>74</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1788563773.01802</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1865566385.741224</v>
+        <v>1460958462.152569</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1500673783603021</v>
+        <v>0.1711412894128419</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02927848571279481</v>
+        <v>0.03673743900305087</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>932783190.6292858</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4890108030.674582</v>
+        <v>3882613775.8599</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1042396650393641</v>
+        <v>0.121560566526165</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03054138879190756</v>
+        <v>0.03022520346809511</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>64</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2445053948.344366</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2801219555.257634</v>
+        <v>3774966880.540892</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2059933732314458</v>
+        <v>0.1267505007653608</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03136583092627971</v>
+        <v>0.03077707323934538</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>73</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1400609827.117242</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2048127187.505045</v>
+        <v>3253618592.175964</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1440824036657898</v>
+        <v>0.1415118778757626</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02051556740103394</v>
+        <v>0.02720119463883001</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>81</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1024063663.974842</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1598248031.449356</v>
+        <v>1884883832.286364</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1337585394849112</v>
+        <v>0.1537592313894997</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04802184214698219</v>
+        <v>0.0419602191254586</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>799124013.5311859</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5431706221.275567</v>
+        <v>4158087249.547889</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07078586849933605</v>
+        <v>0.09156607419801978</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03346714659357565</v>
+        <v>0.03128947397548258</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>66</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2715853109.14147</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3874918731.017165</v>
+        <v>5378374793.024716</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1814956823091225</v>
+        <v>0.1448229954302503</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03256209447632028</v>
+        <v>0.022036974681193</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>73</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1937459392.553152</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4754827495.580295</v>
+        <v>4561930812.055104</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1167892416143268</v>
+        <v>0.1367487537315525</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02710389021258493</v>
+        <v>0.02346112433603733</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>84</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2377413721.316982</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4533868489.936739</v>
+        <v>5471294663.063148</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1021305354126418</v>
+        <v>0.1121397694800698</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03518045110157642</v>
+        <v>0.04483906849221393</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>68</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2266934247.176615</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3207252265.935299</v>
+        <v>3306545752.776012</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07630336964151174</v>
+        <v>0.07636701749210147</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0430283782908689</v>
+        <v>0.03380410596856969</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>75</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1603626133.697849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5300710927.879591</v>
+        <v>4196406851.866001</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1150787418580854</v>
+        <v>0.1005388207116815</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04889708970420466</v>
+        <v>0.04061249411088575</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>79</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2650355538.534552</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2282821230.576018</v>
+        <v>1809490914.39364</v>
       </c>
       <c r="F69" t="n">
-        <v>0.11040152812325</v>
+        <v>0.1504481776533513</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03896052799968446</v>
+        <v>0.03896276099377603</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1141410656.800416</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2345641339.708359</v>
+        <v>3688909784.164105</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08236501585798217</v>
+        <v>0.0693524310304186</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04517210685500572</v>
+        <v>0.03075008812764543</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>66</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1172820604.226175</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4498179844.425522</v>
+        <v>4084149019.917124</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1456135208327276</v>
+        <v>0.1796656379324845</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02711170329572737</v>
+        <v>0.02625303404051175</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>85</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2249089990.428455</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2065370606.374273</v>
+        <v>1964105243.499788</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07535280854163116</v>
+        <v>0.08267213528238376</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04877357240597237</v>
+        <v>0.04314608678731031</v>
       </c>
       <c r="H72" t="b">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1032685238.987116</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2497389434.408414</v>
+        <v>2644082543.197546</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07711983662918141</v>
+        <v>0.08182221045316572</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03535906802984565</v>
+        <v>0.03434179896799926</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>91</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1248694759.210915</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3516620583.731688</v>
+        <v>3449695677.016939</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1304551919370736</v>
+        <v>0.1252618994456081</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0299805136845339</v>
+        <v>0.0345826988063164</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>80</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1758310312.556366</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2394618513.483334</v>
+        <v>2057770041.631067</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1123827607734693</v>
+        <v>0.151585313022525</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02434116627788353</v>
+        <v>0.027856771213925</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1197309183.919057</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4780129830.005254</v>
+        <v>3359816175.873701</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07683640975894115</v>
+        <v>0.1234289325698252</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02929653184424643</v>
+        <v>0.03194915026395568</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>51</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2390064932.386318</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -3046,22 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1956794753.411381</v>
+        <v>1779915625.384516</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1553420596712193</v>
+        <v>0.1600406672465295</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02123924392638442</v>
+        <v>0.02037315325098986</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>978397431.8317</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4782620596.985559</v>
+        <v>4426057314.017451</v>
       </c>
       <c r="F78" t="n">
-        <v>0.123470855323728</v>
+        <v>0.1227727699722711</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05588032115118974</v>
+        <v>0.04201886475989629</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>82</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2391310208.214161</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1835295614.877219</v>
+        <v>1478114526.453402</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1359741722932933</v>
+        <v>0.1565833406522556</v>
       </c>
       <c r="G79" t="n">
-        <v>0.038086126924057</v>
+        <v>0.0349828779946371</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>917647900.2456516</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4649282246.010427</v>
+        <v>4875199853.96054</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1073139959387613</v>
+        <v>0.07819930873073445</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03651722972016357</v>
+        <v>0.02666535883107219</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>49</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2324641154.750124</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4584804266.00251</v>
+        <v>4675966904.843252</v>
       </c>
       <c r="F81" t="n">
-        <v>0.129934814145588</v>
+        <v>0.1017310322258947</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02535691858540609</v>
+        <v>0.0239491921710083</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>55</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2292402117.922077</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3955433229.907925</v>
+        <v>4502921176.334635</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2130603075772886</v>
+        <v>0.1626159071453577</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01984422267543234</v>
+        <v>0.01914902910126145</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>86</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1977716657.162823</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2118568133.692049</v>
+        <v>2395239826.494476</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1115671296221055</v>
+        <v>0.1209567561669271</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03645953160189304</v>
+        <v>0.03013572746264678</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1059284066.864601</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2420269083.078169</v>
+        <v>2579767870.828316</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0840519844841926</v>
+        <v>0.08270651229829538</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05109392617607598</v>
+        <v>0.03939502385437121</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1210134484.992365</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3271895698.11909</v>
+        <v>2533593510.587049</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1340232792071155</v>
+        <v>0.1784230299296465</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04009821500017691</v>
+        <v>0.04723465623690498</v>
       </c>
       <c r="H85" t="b">
         <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>88</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1635947939.23464</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1759997303.335809</v>
+        <v>2707911605.823865</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1551593783169834</v>
+        <v>0.1128932365898656</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02648291524270426</v>
+        <v>0.01701578860211066</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>30</v>
-      </c>
-      <c r="J86" t="n">
-        <v>879998645.9174548</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1159147758.893605</v>
+        <v>937455690.6084408</v>
       </c>
       <c r="F87" t="n">
-        <v>0.145827520496584</v>
+        <v>0.1726520440172119</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03338875145889278</v>
+        <v>0.04094190328305442</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>579573924.5435586</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3049246793.425086</v>
+        <v>2293473911.206429</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1508064093226601</v>
+        <v>0.1114360999816109</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03818365482627006</v>
+        <v>0.03006127701707672</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>92</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1524623432.021874</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2266458181.440034</v>
+        <v>3309842163.394457</v>
       </c>
       <c r="F89" t="n">
-        <v>0.09738258481286595</v>
+        <v>0.1106038298609494</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03717356355850884</v>
+        <v>0.03094636849038054</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>79</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1133229182.58795</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1818232823.596046</v>
+        <v>1983723891.047137</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1262079296437884</v>
+        <v>0.09523261824045683</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04094984544773059</v>
+        <v>0.05544001468921907</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>909116448.7633841</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2103725925.059367</v>
+        <v>1279161669.211504</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1230522488499747</v>
+        <v>0.1723129646832906</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05646665166512538</v>
+        <v>0.06064331467367997</v>
       </c>
       <c r="H91" t="b">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>1051862920.939974</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1825083382.062602</v>
+        <v>1974106655.341932</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09148255510821188</v>
+        <v>0.1003660819366404</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04497247100327895</v>
+        <v>0.03543302070231702</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>59</v>
-      </c>
-      <c r="J92" t="n">
-        <v>912541623.9769374</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4520310939.803455</v>
+        <v>4373398678.81503</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1024784415075986</v>
+        <v>0.1298970724730863</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04811875045437782</v>
+        <v>0.03310241425460561</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>71</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2260155436.881451</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1893301837.50184</v>
+        <v>2063689347.55783</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1017274346829591</v>
+        <v>0.1586694874667627</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04313314426946442</v>
+        <v>0.03115499716343962</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>946650903.1873622</v>
       </c>
     </row>
     <row r="95">
@@ -3658,22 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2817784080.113297</v>
+        <v>2302282551.436166</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09775216649158967</v>
+        <v>0.1051773546288209</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04684058494135884</v>
+        <v>0.03317907709317765</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>57</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1408892053.030023</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2374142502.553769</v>
+        <v>2282060119.499005</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1418032005408427</v>
+        <v>0.1375133124529194</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03084605258253226</v>
+        <v>0.0321220147703314</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1187071198.29408</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3286499966.341895</v>
+        <v>3378188601.591217</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1099388916005243</v>
+        <v>0.134439387560489</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01906588778104681</v>
+        <v>0.02749834625750534</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>76</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1643249982.164911</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2870991135.604258</v>
+        <v>3256513689.717747</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1211338832095713</v>
+        <v>0.1157210493106773</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02988596710766555</v>
+        <v>0.02035969329231111</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>63</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1435495543.76061</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2730355121.685625</v>
+        <v>2906329622.353305</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09571777048446518</v>
+        <v>0.1311848102260728</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03418748175726499</v>
+        <v>0.03203857506553337</v>
       </c>
       <c r="H99" t="b">
         <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>73</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1365177527.25189</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3202715185.606841</v>
+        <v>4272059821.379634</v>
       </c>
       <c r="F100" t="n">
-        <v>0.139539120008926</v>
+        <v>0.1089276513603082</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0255753288265678</v>
+        <v>0.0216870935065311</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>71</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1601357599.815835</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3225346240.102754</v>
+        <v>2203349270.769638</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2085699410273173</v>
+        <v>0.171695023164841</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05536228848749977</v>
+        <v>0.04168981621388294</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>95</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1612673238.882228</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_234.xlsx
+++ b/output/fit_clients/fit_round_234.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2136579178.968482</v>
+        <v>1882762785.045039</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1079610221425926</v>
+        <v>0.1042189933839104</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03805254159473748</v>
+        <v>0.03555135754238175</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -514,13 +514,13 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1795850292.907036</v>
+        <v>2167969018.165871</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1672831336562116</v>
+        <v>0.1619894143511101</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03111518126047655</v>
+        <v>0.03224004047954195</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4271382688.556358</v>
+        <v>5179134785.750294</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1157548037710275</v>
+        <v>0.1364197982275917</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0348398355859754</v>
+        <v>0.03573214822343785</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3655080473.867266</v>
+        <v>3799954409.945844</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08725853650673172</v>
+        <v>0.1060130377233149</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04355772843359039</v>
+        <v>0.0335163934598954</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -598,16 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1920502592.403324</v>
+        <v>2135494325.08272</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1352647253699128</v>
+        <v>0.1464021193907405</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04300386563321301</v>
+        <v>0.03517139172579672</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -626,13 +626,13 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2114585481.592976</v>
+        <v>2343447993.158264</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07892330847027008</v>
+        <v>0.09734511320504537</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03052916260221199</v>
+        <v>0.04250340086845882</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -654,16 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3714399576.399719</v>
+        <v>2508735656.681987</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1648153588724418</v>
+        <v>0.151992390006409</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0220676035963174</v>
+        <v>0.02759862620995037</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2105424693.360378</v>
+        <v>2153148998.610002</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1455694251415101</v>
+        <v>0.1726310067599039</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02872775688190257</v>
+        <v>0.0369495038659495</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4206909731.092046</v>
+        <v>5011548882.775937</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1364167231961879</v>
+        <v>0.1954356475049663</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03313199437822331</v>
+        <v>0.04852483815127831</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3510841503.236265</v>
+        <v>2625824646.376939</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1775078028673741</v>
+        <v>0.1316912077698507</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04633856147450693</v>
+        <v>0.03334204747939252</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3039025700.743072</v>
+        <v>2524354421.150526</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1949729850921783</v>
+        <v>0.176728530585298</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05155311488284708</v>
+        <v>0.03322126309821969</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4099713589.568262</v>
+        <v>4037574359.328159</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06944725900036521</v>
+        <v>0.08405930337264673</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02749074495012248</v>
+        <v>0.01909653222898989</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -822,13 +822,13 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3506365157.158689</v>
+        <v>3327622472.156317</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1188318348463137</v>
+        <v>0.1822755673831087</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03649070486175902</v>
+        <v>0.02860490436760546</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1221315512.23256</v>
+        <v>1332600557.286556</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08725699664486936</v>
+        <v>0.09543878528217375</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04500410706684731</v>
+        <v>0.04841768294370277</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1805250246.826698</v>
+        <v>2095366560.123966</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1140164298799348</v>
+        <v>0.1118618567347838</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03980956256467905</v>
+        <v>0.05037351001177472</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3966678311.710011</v>
+        <v>4681483180.3259</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1714726476378196</v>
+        <v>0.1679918308316047</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0490245393732661</v>
+        <v>0.05194002636466328</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3476700222.832874</v>
+        <v>2418525493.835342</v>
       </c>
       <c r="F18" t="n">
-        <v>0.183314482472561</v>
+        <v>0.1210055849203453</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03449510331633916</v>
+        <v>0.02583619404395424</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1114839149.153913</v>
+        <v>1024651151.660995</v>
       </c>
       <c r="F19" t="n">
-        <v>0.186428616645266</v>
+        <v>0.1348981316993367</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02505689795283967</v>
+        <v>0.02185895845842395</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2357983228.946506</v>
+        <v>2316787955.851862</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1280878061704758</v>
+        <v>0.0995703911183855</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03095903562966418</v>
+        <v>0.02218123554371886</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1836389610.159696</v>
+        <v>2191655785.051322</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08710940030741859</v>
+        <v>0.06244510436732598</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04097848500104145</v>
+        <v>0.04406906455675027</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3873924590.830523</v>
+        <v>2668561197.528799</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1409659634231031</v>
+        <v>0.1267699690110296</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04480223282117038</v>
+        <v>0.05268930870752832</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1420210423.958482</v>
+        <v>1006529177.075579</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1281397231526631</v>
+        <v>0.1125226646948792</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03674455152686623</v>
+        <v>0.04621398824549423</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3291715103.430829</v>
+        <v>3459925760.676185</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1146706738854473</v>
+        <v>0.1173969682838095</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03364708776907521</v>
+        <v>0.02659167163978267</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1130,13 +1130,13 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1451901534.063964</v>
+        <v>1377640615.304104</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1224112213376322</v>
+        <v>0.08584021704137182</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02341689742359599</v>
+        <v>0.02934443989284119</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1069300058.821467</v>
+        <v>1293830091.795016</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1143459158615068</v>
+        <v>0.1170531653592599</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02430157193053083</v>
+        <v>0.03755481171279575</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3638307048.945073</v>
+        <v>4175436825.903008</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1338981099069722</v>
+        <v>0.1097318571654124</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02346402607803113</v>
+        <v>0.01718951873811111</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3261819127.232545</v>
+        <v>3130580131.009602</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09370062521899376</v>
+        <v>0.1012236050240957</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04564966584432831</v>
+        <v>0.04200253892766714</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,19 +1236,19 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4953651203.631663</v>
+        <v>5327705129.828812</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1199889956226517</v>
+        <v>0.1227021650369429</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03443177939022359</v>
+        <v>0.04363623341451615</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1900292245.384251</v>
+        <v>2112747540.704105</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1088051772315954</v>
+        <v>0.08542732757340817</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02677676164530644</v>
+        <v>0.02868385975976965</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1298,13 +1298,13 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1417597780.790901</v>
+        <v>1289770551.839144</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08318886552560592</v>
+        <v>0.08918543391406285</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0492305428776186</v>
+        <v>0.04599824976092958</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1171267009.38367</v>
+        <v>1561675801.861183</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1001487650009344</v>
+        <v>0.07542029730200295</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03577397620280638</v>
+        <v>0.02772787921268438</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,22 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2910647113.471054</v>
+        <v>2916173840.839819</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1486342104775119</v>
+        <v>0.2081020373062349</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03983122069118486</v>
+        <v>0.0369125534777611</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1382,13 +1382,13 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1032071283.938129</v>
+        <v>1409679989.43175</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08393524125370143</v>
+        <v>0.07889605244397145</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02723204175883218</v>
+        <v>0.01869510465139356</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1116868668.88518</v>
+        <v>961139067.112265</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1153644538027556</v>
+        <v>0.07983571605635104</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03090090594454096</v>
+        <v>0.03439969650439962</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2293630846.728375</v>
+        <v>2885090888.200814</v>
       </c>
       <c r="F36" t="n">
-        <v>0.158279366664322</v>
+        <v>0.1126504031774459</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02530195144316578</v>
+        <v>0.0278794462613984</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1466,13 +1466,13 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2786559283.900788</v>
+        <v>2948118398.32658</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1093361474312166</v>
+        <v>0.0695888604677449</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02991064045690993</v>
+        <v>0.03392701203681298</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1891719369.281145</v>
+        <v>1568228443.430173</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1083774435140109</v>
+        <v>0.09592066714286931</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02601726596643484</v>
+        <v>0.03440201262339861</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1522,13 +1522,13 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1845421912.683047</v>
+        <v>2137760165.877332</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1368451504069699</v>
+        <v>0.1202692863780335</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02380106104756565</v>
+        <v>0.02676705893209807</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1550,13 +1550,13 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1657431148.263326</v>
+        <v>1429495076.076719</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1590710625340311</v>
+        <v>0.1291530117758998</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04588034002731017</v>
+        <v>0.05614950933916227</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,22 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1929522203.853729</v>
+        <v>2747175094.284183</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1300493963311595</v>
+        <v>0.1523878003948528</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03898439228153078</v>
+        <v>0.03251758572889116</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2795620423.389505</v>
+        <v>3248462683.536073</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1154075674037509</v>
+        <v>0.09734330096793921</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03348184736942662</v>
+        <v>0.04058046172481515</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,22 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2479950004.195953</v>
+        <v>2529764553.264097</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1335817563956051</v>
+        <v>0.1825266316695815</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01605973225562678</v>
+        <v>0.02050042749136341</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1662,13 +1662,13 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1773842335.312728</v>
+        <v>2034121019.058881</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08529704793741096</v>
+        <v>0.07104220586909782</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03160384858217843</v>
+        <v>0.03232612204153596</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2219212279.383452</v>
+        <v>2452876370.612426</v>
       </c>
       <c r="F45" t="n">
-        <v>0.176865449962292</v>
+        <v>0.1924480980005247</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04899422148992007</v>
+        <v>0.05130290564504578</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,19 +1712,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5522268910.877432</v>
+        <v>5651941396.4724</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1501309982286924</v>
+        <v>0.1108209415632778</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04819297094366128</v>
+        <v>0.05088035294426233</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4947669232.690473</v>
+        <v>4481522674.890352</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1775841031936007</v>
+        <v>0.1245702842895164</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05662991477571905</v>
+        <v>0.0449049554928678</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3178416232.57218</v>
+        <v>4464858550.384484</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07528898703561014</v>
+        <v>0.08208517641893981</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02358750784407073</v>
+        <v>0.03518183772541215</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1965145274.461201</v>
+        <v>1762802615.621226</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1852478099514199</v>
+        <v>0.1554573907949409</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03522629666490809</v>
+        <v>0.03869808272321541</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1830,16 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3677246600.13669</v>
+        <v>3392304601.179924</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1145313208549486</v>
+        <v>0.1255704088119587</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03575840009006034</v>
+        <v>0.03671228860979339</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1372890275.833442</v>
+        <v>1456439440.337567</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1361062749402641</v>
+        <v>0.1496989228768254</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03553159877815398</v>
+        <v>0.04923171391971277</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4858255783.148367</v>
+        <v>3687832496.586362</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1301008342073829</v>
+        <v>0.1025135245540015</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04983691602189994</v>
+        <v>0.05830889630645913</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1914,13 +1914,13 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3105150838.172541</v>
+        <v>2387701782.173223</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1887856242191325</v>
+        <v>0.1509927607349865</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03474573090939823</v>
+        <v>0.03240217563093654</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,19 +1936,19 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4057302762.23853</v>
+        <v>4585536500.633526</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1170815653760746</v>
+        <v>0.1307091871174851</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04180414565000264</v>
+        <v>0.05067787547738415</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4166163897.496706</v>
+        <v>3508869214.936197</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2068707180018643</v>
+        <v>0.1917101953706814</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03031738053172603</v>
+        <v>0.02336321639757534</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1884088893.232066</v>
+        <v>1203790242.251856</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1313389846131275</v>
+        <v>0.1353342829379965</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05742750951678996</v>
+        <v>0.05425049985735599</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2026,16 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3634798253.97172</v>
+        <v>2832192161.60188</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1554375226245411</v>
+        <v>0.1761673513954476</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02562293408047464</v>
+        <v>0.02659533183384476</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1460958462.152569</v>
+        <v>1378858210.787282</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1711412894128419</v>
+        <v>0.1227144964292909</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03673743900305087</v>
+        <v>0.02905257237865959</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2082,13 +2082,13 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3882613775.8599</v>
+        <v>5353198526.707586</v>
       </c>
       <c r="F59" t="n">
-        <v>0.121560566526165</v>
+        <v>0.09843998025483694</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03022520346809511</v>
+        <v>0.04537791975506494</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2110,13 +2110,13 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3774966880.540892</v>
+        <v>3474855102.807962</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1267505007653608</v>
+        <v>0.1919509196492394</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03077707323934538</v>
+        <v>0.02111400473851687</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2138,13 +2138,13 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3253618592.175964</v>
+        <v>3204115887.831637</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1415118778757626</v>
+        <v>0.1674845036330483</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02720119463883001</v>
+        <v>0.02463247751321432</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1884883832.286364</v>
+        <v>1389311728.030422</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1537592313894997</v>
+        <v>0.1831639345093499</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0419602191254586</v>
+        <v>0.03906244983018216</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4158087249.547889</v>
+        <v>4775965084.49305</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09156607419801978</v>
+        <v>0.09255948075078084</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03128947397548258</v>
+        <v>0.04117733632917936</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2222,16 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5378374793.024716</v>
+        <v>4395837214.152396</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1448229954302503</v>
+        <v>0.1452847159655383</v>
       </c>
       <c r="G64" t="n">
-        <v>0.022036974681193</v>
+        <v>0.03204966703525712</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4561930812.055104</v>
+        <v>5670860285.505977</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1367487537315525</v>
+        <v>0.1577606336964229</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02346112433603733</v>
+        <v>0.02321207430790331</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5471294663.063148</v>
+        <v>5178229987.783763</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1121397694800698</v>
+        <v>0.1550434248073924</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04483906849221393</v>
+        <v>0.04533017457759415</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2306,13 +2306,13 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3306545752.776012</v>
+        <v>2382397212.911302</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07636701749210147</v>
+        <v>0.08610058261877403</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03380410596856969</v>
+        <v>0.04596698564851012</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4196406851.866001</v>
+        <v>5256729652.261907</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1005388207116815</v>
+        <v>0.1497477083293126</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04061249411088575</v>
+        <v>0.03269854787674422</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2362,13 +2362,13 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1809490914.39364</v>
+        <v>1679867733.973595</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1504481776533513</v>
+        <v>0.1375764486121036</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03896276099377603</v>
+        <v>0.04289270695086964</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,22 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3688909784.164105</v>
+        <v>2793432197.943692</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0693524310304186</v>
+        <v>0.06378524715707704</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03075008812764543</v>
+        <v>0.03441569563785783</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2418,13 +2418,13 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4084149019.917124</v>
+        <v>4904150105.105813</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1796656379324845</v>
+        <v>0.1799470373972545</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02625303404051175</v>
+        <v>0.03069198181337988</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
@@ -2440,22 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1964105243.499788</v>
+        <v>1603158468.999982</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08267213528238376</v>
+        <v>0.09658464528963973</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04314608678731031</v>
+        <v>0.04637200710340227</v>
       </c>
       <c r="H72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2468,22 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2644082543.197546</v>
+        <v>3321326596.561447</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08182221045316572</v>
+        <v>0.08232317111753192</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03434179896799926</v>
+        <v>0.04161634290827175</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2502,13 +2502,13 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3449695677.016939</v>
+        <v>3831840180.329661</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1252618994456081</v>
+        <v>0.1226318575955573</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0345826988063164</v>
+        <v>0.03477602474355533</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2057770041.631067</v>
+        <v>1551730008.274394</v>
       </c>
       <c r="F75" t="n">
-        <v>0.151585313022525</v>
+        <v>0.1572749627657324</v>
       </c>
       <c r="G75" t="n">
-        <v>0.027856771213925</v>
+        <v>0.02688857740048586</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,19 +2552,19 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3359816175.873701</v>
+        <v>5172732162.111659</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1234289325698252</v>
+        <v>0.0992815035704197</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03194915026395568</v>
+        <v>0.02619027965222253</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1779915625.384516</v>
+        <v>2271193707.264058</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1600406672465295</v>
+        <v>0.117925684950581</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02037315325098986</v>
+        <v>0.03080320312059707</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4426057314.017451</v>
+        <v>3433052941.936202</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1227727699722711</v>
+        <v>0.0853027438221222</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04201886475989629</v>
+        <v>0.0466073727605322</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2642,16 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1478114526.453402</v>
+        <v>1291120796.629003</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1565833406522556</v>
+        <v>0.1198839427280673</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0349828779946371</v>
+        <v>0.02683251047390873</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4875199853.96054</v>
+        <v>4114374860.806525</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07819930873073445</v>
+        <v>0.07054969024335721</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02666535883107219</v>
+        <v>0.02497527661786857</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4675966904.843252</v>
+        <v>3260601773.293893</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1017310322258947</v>
+        <v>0.09967288916295597</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0239491921710083</v>
+        <v>0.03197893774537362</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4502921176.334635</v>
+        <v>5677252575.924136</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1626159071453577</v>
+        <v>0.1560079817649078</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01914902910126145</v>
+        <v>0.02701768841863081</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2395239826.494476</v>
+        <v>2252915654.44794</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1209567561669271</v>
+        <v>0.1322454439018424</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03013572746264678</v>
+        <v>0.03404633978185063</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2782,13 +2782,13 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2579767870.828316</v>
+        <v>1575001487.343839</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08270651229829538</v>
+        <v>0.0791298287994642</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03939502385437121</v>
+        <v>0.04313958008593852</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,22 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2533593510.587049</v>
+        <v>3328048673.018974</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1784230299296465</v>
+        <v>0.1370051295730192</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04723465623690498</v>
+        <v>0.04973478140273695</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2707911605.823865</v>
+        <v>2316263395.853073</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1128932365898656</v>
+        <v>0.1055671542403926</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01701578860211066</v>
+        <v>0.02414138059136133</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2866,13 +2866,13 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>937455690.6084408</v>
+        <v>1069129620.540657</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1726520440172119</v>
+        <v>0.1891117210991746</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04094190328305442</v>
+        <v>0.04239563474571572</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2894,13 +2894,13 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2293473911.206429</v>
+        <v>3125143484.986425</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1114360999816109</v>
+        <v>0.1205044534102223</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03006127701707672</v>
+        <v>0.02569885952483919</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3309842163.394457</v>
+        <v>2521012165.72802</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1106038298609494</v>
+        <v>0.1492456330907641</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03094636849038054</v>
+        <v>0.03277775118019541</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1983723891.047137</v>
+        <v>1886558685.248455</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09523261824045683</v>
+        <v>0.08785408474187788</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05544001468921907</v>
+        <v>0.04454031299837999</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2978,16 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1279161669.211504</v>
+        <v>1898076621.580394</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1723129646832906</v>
+        <v>0.1946856076813254</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06064331467367997</v>
+        <v>0.04049919007893902</v>
       </c>
       <c r="H91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1974106655.341932</v>
+        <v>2044129208.647218</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1003660819366404</v>
+        <v>0.08308956197889401</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03543302070231702</v>
+        <v>0.03711435417426365</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4373398678.81503</v>
+        <v>4544900988.261998</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1298970724730863</v>
+        <v>0.1259035083396537</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03310241425460561</v>
+        <v>0.03526312777001734</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3062,13 +3062,13 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2063689347.55783</v>
+        <v>2050550498.495528</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1586694874667627</v>
+        <v>0.1323274408846011</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03115499716343962</v>
+        <v>0.03025894209999139</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2302282551.436166</v>
+        <v>2292035399.460969</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1051773546288209</v>
+        <v>0.1102194767204768</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03317907709317765</v>
+        <v>0.04490620293404948</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2282060119.499005</v>
+        <v>2373378271.18917</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1375133124529194</v>
+        <v>0.1318733012210142</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0321220147703314</v>
+        <v>0.04423253868867267</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3146,16 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3378188601.591217</v>
+        <v>3234361670.166225</v>
       </c>
       <c r="F97" t="n">
-        <v>0.134439387560489</v>
+        <v>0.1121452694822344</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02749834625750534</v>
+        <v>0.02435900518827075</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3256513689.717747</v>
+        <v>2377472374.938904</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1157210493106773</v>
+        <v>0.1093605847057135</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02035969329231111</v>
+        <v>0.0296444656964982</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,22 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2906329622.353305</v>
+        <v>2533160359.735092</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1311848102260728</v>
+        <v>0.1398043315030423</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03203857506553337</v>
+        <v>0.03341188326789571</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4272059821.379634</v>
+        <v>3604807888.814359</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1089276513603082</v>
+        <v>0.1604696103175376</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0216870935065311</v>
+        <v>0.02145381755434722</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2203349270.769638</v>
+        <v>3386111456.106864</v>
       </c>
       <c r="F101" t="n">
-        <v>0.171695023164841</v>
+        <v>0.2030472520174214</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04168981621388294</v>
+        <v>0.04272253314726986</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_234.xlsx
+++ b/output/fit_clients/fit_round_234.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1882762785.045039</v>
+        <v>2333070368.967375</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1042189933839104</v>
+        <v>0.07808606909065259</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03555135754238175</v>
+        <v>0.04102092744457</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2167969018.165871</v>
+        <v>2575441996.556631</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1619894143511101</v>
+        <v>0.1118663388637936</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03224004047954195</v>
+        <v>0.04728117138276171</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5179134785.750294</v>
+        <v>4501485557.334679</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1364197982275917</v>
+        <v>0.1153757553709433</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03573214822343785</v>
+        <v>0.02571039353189643</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>127</v>
+      </c>
+      <c r="J4" t="n">
+        <v>233</v>
+      </c>
+      <c r="K4" t="n">
+        <v>103.513874306681</v>
       </c>
     </row>
     <row r="5">
@@ -564,23 +602,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3799954409.945844</v>
+        <v>3319484363.259214</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1060130377233149</v>
+        <v>0.07888369752814064</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0335163934598954</v>
+        <v>0.04875819539040509</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>96</v>
+      </c>
+      <c r="J5" t="n">
+        <v>232</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2135494325.08272</v>
+        <v>2545907154.441438</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1464021193907405</v>
+        <v>0.09182324942419691</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03517139172579672</v>
+        <v>0.04935427070893107</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2343447993.158264</v>
+        <v>2906294841.294412</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09734511320504537</v>
+        <v>0.09472937692556931</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04250340086845882</v>
+        <v>0.03308746862759703</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -654,17 +713,24 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2508735656.681987</v>
+        <v>3803178556.527377</v>
       </c>
       <c r="F8" t="n">
-        <v>0.151992390006409</v>
+        <v>0.2114470561339708</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02759862620995037</v>
+        <v>0.03286517491171474</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>66</v>
+      </c>
+      <c r="J8" t="n">
+        <v>234</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -682,17 +748,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2153148998.610002</v>
+        <v>1782306760.527654</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1726310067599039</v>
+        <v>0.1666825787683254</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0369495038659495</v>
+        <v>0.03158254644139705</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5011548882.775937</v>
+        <v>5114096550.65986</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1954356475049663</v>
+        <v>0.1415293599137619</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04852483815127831</v>
+        <v>0.05265264954099717</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>213</v>
+      </c>
+      <c r="J10" t="n">
+        <v>234</v>
+      </c>
+      <c r="K10" t="n">
+        <v>113.8499354830869</v>
       </c>
     </row>
     <row r="11">
@@ -738,17 +820,24 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2625824646.376939</v>
+        <v>3677898434.952146</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1316912077698507</v>
+        <v>0.189133549344464</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03334204747939252</v>
+        <v>0.04376028322914657</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>97</v>
+      </c>
+      <c r="J11" t="n">
+        <v>234</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2524354421.150526</v>
+        <v>3282377804.512754</v>
       </c>
       <c r="F12" t="n">
-        <v>0.176728530585298</v>
+        <v>0.1471021795261952</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03322126309821969</v>
+        <v>0.05031910793643716</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,16 +890,25 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4037574359.328159</v>
+        <v>4356312717.244611</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08405930337264673</v>
+        <v>0.0893429899934142</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01909653222898989</v>
+        <v>0.02380600931344394</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>118</v>
+      </c>
+      <c r="J13" t="n">
+        <v>233</v>
+      </c>
+      <c r="K13" t="n">
+        <v>107.5356038255571</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +921,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3327622472.156317</v>
+        <v>3709682499.578016</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1822755673831087</v>
+        <v>0.1788354466048961</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02860490436760546</v>
+        <v>0.0273781598090813</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>44</v>
+      </c>
+      <c r="J14" t="n">
+        <v>234</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1332600557.286556</v>
+        <v>1721822866.462746</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09543878528217375</v>
+        <v>0.07034223747860603</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04841768294370277</v>
+        <v>0.04822456660116299</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +997,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2095366560.123966</v>
+        <v>1938890754.345918</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1118618567347838</v>
+        <v>0.08455212569397073</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05037351001177472</v>
+        <v>0.04584832848986466</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,16 +1032,25 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4681483180.3259</v>
+        <v>3760872299.077933</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1679918308316047</v>
+        <v>0.1536752603013598</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05194002636466328</v>
+        <v>0.04481714636572485</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>113</v>
+      </c>
+      <c r="J17" t="n">
+        <v>233</v>
+      </c>
+      <c r="K17" t="n">
+        <v>74.22150566078899</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1063,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2418525493.835342</v>
+        <v>3829860670.183425</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1210055849203453</v>
+        <v>0.1331239097188388</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02583619404395424</v>
+        <v>0.02528336241415076</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>59</v>
+      </c>
+      <c r="J18" t="n">
+        <v>233</v>
+      </c>
+      <c r="K18" t="n">
+        <v>86.09353810565261</v>
       </c>
     </row>
     <row r="19">
@@ -956,23 +1100,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1024651151.660995</v>
+        <v>827869130.1502476</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1348981316993367</v>
+        <v>0.1559794427552089</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02185895845842395</v>
+        <v>0.01774834236161128</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1135,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2316787955.851862</v>
+        <v>2143309074.2309</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0995703911183855</v>
+        <v>0.1520439529499016</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02218123554371886</v>
+        <v>0.02480684585142362</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1176,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2191655785.051322</v>
+        <v>2088559976.761966</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06244510436732598</v>
+        <v>0.08154780122999697</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04406906455675027</v>
+        <v>0.04212036823543912</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1205,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2668561197.528799</v>
+        <v>2915385422.915982</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1267699690110296</v>
+        <v>0.1096964154575589</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05268930870752832</v>
+        <v>0.03994771404109421</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>59</v>
+      </c>
+      <c r="J22" t="n">
+        <v>231</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1240,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1006529177.075579</v>
+        <v>1175127023.316324</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1125226646948792</v>
+        <v>0.1198233441201358</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04621398824549423</v>
+        <v>0.0418987874921268</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,22 +1275,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3459925760.676185</v>
+        <v>3231260166.672422</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1173969682838095</v>
+        <v>0.1318900983113552</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02659167163978267</v>
+        <v>0.03149958343804397</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>71</v>
+      </c>
+      <c r="J24" t="n">
+        <v>233</v>
+      </c>
+      <c r="K24" t="n">
+        <v>55.84517034985402</v>
       </c>
     </row>
     <row r="25">
@@ -1130,17 +1318,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1377640615.304104</v>
+        <v>903327142.5822102</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08584021704137182</v>
+        <v>0.1188716181446194</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02934443989284119</v>
+        <v>0.02973427359652513</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1347,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1293830091.795016</v>
+        <v>1051894208.438364</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1170531653592599</v>
+        <v>0.08918282353272543</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03755481171279575</v>
+        <v>0.03074630833390019</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1382,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4175436825.903008</v>
+        <v>4364200615.131709</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1097318571654124</v>
+        <v>0.1037317066220092</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01718951873811111</v>
+        <v>0.02248061992351016</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>94</v>
+      </c>
+      <c r="J27" t="n">
+        <v>234</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1214,17 +1423,24 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3130580131.009602</v>
+        <v>2595612388.600699</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1012236050240957</v>
+        <v>0.1401442664749462</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04200253892766714</v>
+        <v>0.05001838659548662</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>48</v>
+      </c>
+      <c r="J28" t="n">
+        <v>230</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1452,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5327705129.828812</v>
+        <v>5182233050.692478</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1227021650369429</v>
+        <v>0.09826720684616297</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04363623341451615</v>
+        <v>0.03009561316408843</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>223</v>
+      </c>
+      <c r="J29" t="n">
+        <v>234</v>
+      </c>
+      <c r="K29" t="n">
+        <v>119.1264730510677</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1489,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2112747540.704105</v>
+        <v>1788792119.592257</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08542732757340817</v>
+        <v>0.1293459112958</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02868385975976965</v>
+        <v>0.03431351742647751</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1524,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1289770551.839144</v>
+        <v>973499374.1451887</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08918543391406285</v>
+        <v>0.07669574235215858</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04599824976092958</v>
+        <v>0.04105455990532384</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1565,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1561675801.861183</v>
+        <v>1513129615.441191</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07542029730200295</v>
+        <v>0.1096747950634285</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02772787921268438</v>
+        <v>0.02698477634772845</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1594,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2916173840.839819</v>
+        <v>2701840622.079782</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2081020373062349</v>
+        <v>0.1302447536307279</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0369125534777611</v>
+        <v>0.03955149749935929</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1629,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1409679989.43175</v>
+        <v>1532375128.596676</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07889605244397145</v>
+        <v>0.1084643504058165</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01869510465139356</v>
+        <v>0.02642261384561024</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1670,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>961139067.112265</v>
+        <v>1249738339.602556</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07983571605635104</v>
+        <v>0.1090896957973016</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03439969650439962</v>
+        <v>0.02942069846811804</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1699,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2885090888.200814</v>
+        <v>2434708602.921793</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1126504031774459</v>
+        <v>0.176025358354592</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0278794462613984</v>
+        <v>0.01954712677485008</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1734,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2948118398.32658</v>
+        <v>2441968760.315125</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0695888604677449</v>
+        <v>0.1110506370559429</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03392701203681298</v>
+        <v>0.037936743147835</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1769,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1568228443.430173</v>
+        <v>2153070933.999279</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09592066714286931</v>
+        <v>0.0781187540023285</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03440201262339861</v>
+        <v>0.03187480166764307</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1804,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2137760165.877332</v>
+        <v>1752959010.018072</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1202692863780335</v>
+        <v>0.1317247690228186</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02676705893209807</v>
+        <v>0.02571880520310766</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1839,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1429495076.076719</v>
+        <v>1469919965.775214</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1291530117758998</v>
+        <v>0.1554893544617729</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05614950933916227</v>
+        <v>0.05565557483283691</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1880,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2747175094.284183</v>
+        <v>2134828359.099341</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1523878003948528</v>
+        <v>0.1266721349202671</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03251758572889116</v>
+        <v>0.0360875768777415</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1909,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3248462683.536073</v>
+        <v>3546032561.124274</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09734330096793921</v>
+        <v>0.1135732227326635</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04058046172481515</v>
+        <v>0.03413955395376061</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>95</v>
+      </c>
+      <c r="J42" t="n">
+        <v>234</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1944,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2529764553.264097</v>
+        <v>2750314416.205653</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1825266316695815</v>
+        <v>0.2005676749308</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02050042749136341</v>
+        <v>0.0245701319622868</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1985,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2034121019.058881</v>
+        <v>2133694273.622323</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07104220586909782</v>
+        <v>0.1000523252776581</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03232612204153596</v>
+        <v>0.02396256259190876</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2014,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2452876370.612426</v>
+        <v>1671384280.744517</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1924480980005247</v>
+        <v>0.1645122953775878</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05130290564504578</v>
+        <v>0.03838011495016596</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,17 +2055,24 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5651941396.4724</v>
+        <v>5620846824.602804</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1108209415632778</v>
+        <v>0.1685117119519084</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05088035294426233</v>
+        <v>0.05729593700547118</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>134</v>
+      </c>
+      <c r="J46" t="n">
+        <v>234</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1746,17 +2090,24 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4481522674.890352</v>
+        <v>4014731813.308462</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1245702842895164</v>
+        <v>0.1534342886761779</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0449049554928678</v>
+        <v>0.04061027836326142</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>104</v>
+      </c>
+      <c r="J47" t="n">
+        <v>234</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,22 +2119,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4464858550.384484</v>
+        <v>4434799130.00274</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08208517641893981</v>
+        <v>0.08060750367932568</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03518183772541215</v>
+        <v>0.03488213098810959</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>114</v>
+      </c>
+      <c r="J48" t="n">
+        <v>234</v>
+      </c>
+      <c r="K48" t="n">
+        <v>113.4066360286037</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2156,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1762802615.621226</v>
+        <v>1517076569.827352</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1554573907949409</v>
+        <v>0.1680970865494004</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03869808272321541</v>
+        <v>0.04139626386108194</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2191,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3392304601.179924</v>
+        <v>2560145414.641363</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1255704088119587</v>
+        <v>0.161173048198652</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03671228860979339</v>
+        <v>0.04770159336992789</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>77</v>
+      </c>
+      <c r="J50" t="n">
+        <v>232</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2226,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1456439440.337567</v>
+        <v>1247527376.803235</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1496989228768254</v>
+        <v>0.147130629603904</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04923171391971277</v>
+        <v>0.04891099043932525</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,16 +2267,25 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3687832496.586362</v>
+        <v>3363426384.454323</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1025135245540015</v>
+        <v>0.09003812399839731</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05830889630645913</v>
+        <v>0.05733077497522419</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>154</v>
+      </c>
+      <c r="J52" t="n">
+        <v>233</v>
+      </c>
+      <c r="K52" t="n">
+        <v>63.08753631008912</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2298,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2387701782.173223</v>
+        <v>3709125037.593278</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1509927607349865</v>
+        <v>0.1542801836302597</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03240217563093654</v>
+        <v>0.03188473028357634</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>32</v>
+      </c>
+      <c r="J53" t="n">
+        <v>234</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2333,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4585536500.633526</v>
+        <v>4717528540.876306</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1307091871174851</v>
+        <v>0.114748438469744</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05067787547738415</v>
+        <v>0.03679352576761208</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>125</v>
+      </c>
+      <c r="J54" t="n">
+        <v>233</v>
+      </c>
+      <c r="K54" t="n">
+        <v>109.073896414621</v>
       </c>
     </row>
     <row r="55">
@@ -1970,17 +2376,24 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3508869214.936197</v>
+        <v>4963989102.985594</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1917101953706814</v>
+        <v>0.1450432603479258</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02336321639757534</v>
+        <v>0.02756655167132661</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>104</v>
+      </c>
+      <c r="J55" t="n">
+        <v>234</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2405,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1203790242.251856</v>
+        <v>1274242464.748917</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1353342829379965</v>
+        <v>0.1087472976957798</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05425049985735599</v>
+        <v>0.05761875005881578</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2440,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2832192161.60188</v>
+        <v>3549990643.128436</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1761673513954476</v>
+        <v>0.1405415172327982</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02659533183384476</v>
+        <v>0.02328786043087555</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>92</v>
+      </c>
+      <c r="J57" t="n">
+        <v>233</v>
+      </c>
+      <c r="K57" t="n">
+        <v>72.44136593310306</v>
       </c>
     </row>
     <row r="58">
@@ -2054,17 +2483,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1378858210.787282</v>
+        <v>1845636181.341094</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1227144964292909</v>
+        <v>0.1548184301649027</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02905257237865959</v>
+        <v>0.03344548909118571</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2512,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5353198526.707586</v>
+        <v>3531270533.318103</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09843998025483694</v>
+        <v>0.1115443839832295</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04537791975506494</v>
+        <v>0.0392759083340606</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
       </c>
+      <c r="I59" t="n">
+        <v>113</v>
+      </c>
+      <c r="J59" t="n">
+        <v>232</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2547,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3474855102.807962</v>
+        <v>2501606689.226379</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1919509196492394</v>
+        <v>0.199491832141252</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02111400473851687</v>
+        <v>0.03337913207076253</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>33</v>
+      </c>
+      <c r="J60" t="n">
+        <v>231</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2582,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3204115887.831637</v>
+        <v>2803612387.697338</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1674845036330483</v>
+        <v>0.1149523120243192</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02463247751321432</v>
+        <v>0.0236776823023018</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>6</v>
+      </c>
+      <c r="J61" t="n">
+        <v>188</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2617,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1389311728.030422</v>
+        <v>1767145782.525166</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1831639345093499</v>
+        <v>0.19168170766645</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03906244983018216</v>
+        <v>0.04071864820935594</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2652,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4775965084.49305</v>
+        <v>5570357688.811414</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09255948075078084</v>
+        <v>0.09483389957766179</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04117733632917936</v>
+        <v>0.02916175714198176</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>114</v>
+      </c>
+      <c r="J63" t="n">
+        <v>233</v>
+      </c>
+      <c r="K63" t="n">
+        <v>102.5309065186727</v>
       </c>
     </row>
     <row r="64">
@@ -2216,23 +2689,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4395837214.152396</v>
+        <v>4907752340.530863</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1452847159655383</v>
+        <v>0.1629235272995793</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03204966703525712</v>
+        <v>0.02504122581914556</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>115</v>
+      </c>
+      <c r="J64" t="n">
+        <v>234</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2724,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5670860285.505977</v>
+        <v>4735396668.396908</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1577606336964229</v>
+        <v>0.121723900083167</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02321207430790331</v>
+        <v>0.02119545305522937</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>186</v>
+      </c>
+      <c r="J65" t="n">
+        <v>234</v>
+      </c>
+      <c r="K65" t="n">
+        <v>110.7341118543106</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2761,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5178229987.783763</v>
+        <v>4658656751.656231</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1550434248073924</v>
+        <v>0.1629165940928683</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04533017457759415</v>
+        <v>0.04384879510224855</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>115</v>
+      </c>
+      <c r="J66" t="n">
+        <v>234</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2796,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2382397212.911302</v>
+        <v>3372509230.436615</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08610058261877403</v>
+        <v>0.06755350052187731</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04596698564851012</v>
+        <v>0.04202164158065836</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>4</v>
+      </c>
+      <c r="J67" t="n">
+        <v>226</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,16 +2837,25 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5256729652.261907</v>
+        <v>5339245368.319477</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1497477083293126</v>
+        <v>0.09839897276860951</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03269854787674422</v>
+        <v>0.03897500809225376</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>118</v>
+      </c>
+      <c r="J68" t="n">
+        <v>233</v>
+      </c>
+      <c r="K68" t="n">
+        <v>106.8739783158981</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2868,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1679867733.973595</v>
+        <v>1958669979.008099</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1375764486121036</v>
+        <v>0.1411206879056742</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04289270695086964</v>
+        <v>0.05586803743082505</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2903,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2793432197.943692</v>
+        <v>3614928885.679451</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06378524715707704</v>
+        <v>0.1005444165471038</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03441569563785783</v>
+        <v>0.03181091025210452</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>36</v>
+      </c>
+      <c r="J70" t="n">
+        <v>234</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2938,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4904150105.105813</v>
+        <v>3798757528.626104</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1799470373972545</v>
+        <v>0.1268925539423464</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03069198181337988</v>
+        <v>0.0293766391428006</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>178</v>
+      </c>
+      <c r="J71" t="n">
+        <v>233</v>
+      </c>
+      <c r="K71" t="n">
+        <v>83.82778276421155</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2975,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1603158468.999982</v>
+        <v>2264114115.753706</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09658464528963973</v>
+        <v>0.07441863828514113</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04637200710340227</v>
+        <v>0.04643804487646606</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,22 +3010,31 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3321326596.561447</v>
+        <v>2283417035.887155</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08232317111753192</v>
+        <v>0.1014600152829988</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04161634290827175</v>
+        <v>0.05139647037915919</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>13</v>
+      </c>
+      <c r="J73" t="n">
+        <v>233</v>
+      </c>
+      <c r="K73" t="n">
+        <v>34.92316952557017</v>
       </c>
     </row>
     <row r="74">
@@ -2496,23 +3047,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3831840180.329661</v>
+        <v>3470416127.825766</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1226318575955573</v>
+        <v>0.1186766646669078</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03477602474355533</v>
+        <v>0.0236993061771044</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>67</v>
+      </c>
+      <c r="J74" t="n">
+        <v>229</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3082,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1551730008.274394</v>
+        <v>2269201858.685938</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1572749627657324</v>
+        <v>0.1554690133198476</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02688857740048586</v>
+        <v>0.02950504092805972</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,17 +3123,24 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5172732162.111659</v>
+        <v>4079181743.919195</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0992815035704197</v>
+        <v>0.09320962796851009</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02619027965222253</v>
+        <v>0.03106577548979718</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>108</v>
+      </c>
+      <c r="J76" t="n">
+        <v>234</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3152,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2271193707.264058</v>
+        <v>1826773109.242365</v>
       </c>
       <c r="F77" t="n">
-        <v>0.117925684950581</v>
+        <v>0.1633320580639269</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03080320312059707</v>
+        <v>0.02575991755527177</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,17 +3193,24 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3433052941.936202</v>
+        <v>3093016615.581138</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0853027438221222</v>
+        <v>0.08919822054429706</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0466073727605322</v>
+        <v>0.05614879312914659</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>117</v>
+      </c>
+      <c r="J78" t="n">
+        <v>232</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3222,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1291120796.629003</v>
+        <v>1175744166.506984</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1198839427280673</v>
+        <v>0.1350536630955236</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02683251047390873</v>
+        <v>0.03965898558534169</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3257,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4114374860.806525</v>
+        <v>4503584107.190036</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07054969024335721</v>
+        <v>0.07647233669060291</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02497527661786857</v>
+        <v>0.0380738277641035</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>114</v>
+      </c>
+      <c r="J80" t="n">
+        <v>233</v>
+      </c>
+      <c r="K80" t="n">
+        <v>79.34261280522591</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3294,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3260601773.293893</v>
+        <v>3620581781.38631</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09967288916295597</v>
+        <v>0.1268636676829261</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03197893774537362</v>
+        <v>0.02858387351004982</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>108</v>
+      </c>
+      <c r="J81" t="n">
+        <v>233</v>
+      </c>
+      <c r="K81" t="n">
+        <v>65.04377316602904</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3331,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5677252575.924136</v>
+        <v>5516249093.692854</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1560079817649078</v>
+        <v>0.1580564791531894</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02701768841863081</v>
+        <v>0.02846776209719308</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>176</v>
+      </c>
+      <c r="J82" t="n">
+        <v>234</v>
+      </c>
+      <c r="K82" t="n">
+        <v>109.1868903229634</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3368,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2252915654.44794</v>
+        <v>2443376393.321066</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1322454439018424</v>
+        <v>0.1092496055259606</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03404633978185063</v>
+        <v>0.03640421296062836</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3409,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1575001487.343839</v>
+        <v>2263950088.477458</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0791298287994642</v>
+        <v>0.07838303127706828</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04313958008593852</v>
+        <v>0.0339540493007839</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3438,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3328048673.018974</v>
+        <v>2407825255.674237</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1370051295730192</v>
+        <v>0.1229741752099953</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04973478140273695</v>
+        <v>0.03900844699105529</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>31</v>
+      </c>
+      <c r="J85" t="n">
+        <v>225</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3473,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2316263395.853073</v>
+        <v>1774284193.154224</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1055671542403926</v>
+        <v>0.1424098070048789</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02414138059136133</v>
+        <v>0.01924978114015355</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3514,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1069129620.540657</v>
+        <v>1461391190.414441</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1891117210991746</v>
+        <v>0.1590723213668149</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04239563474571572</v>
+        <v>0.04370116873883714</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,17 +3549,24 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3125143484.986425</v>
+        <v>2629101978.164737</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1205044534102223</v>
+        <v>0.1335982281472916</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02569885952483919</v>
+        <v>0.03548259796696801</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>34</v>
+      </c>
+      <c r="J88" t="n">
+        <v>232</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3584,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2521012165.72802</v>
+        <v>2400770436.609071</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1492456330907641</v>
+        <v>0.1417327220705075</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03277775118019541</v>
+        <v>0.03918969830918751</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>17</v>
+      </c>
+      <c r="J89" t="n">
+        <v>225</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2950,17 +3619,24 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1886558685.248455</v>
+        <v>2020726991.42734</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08785408474187788</v>
+        <v>0.1358604579874141</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04454031299837999</v>
+        <v>0.05522888299744254</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3648,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1898076621.580394</v>
+        <v>1382470443.86305</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1946856076813254</v>
+        <v>0.1572379895884669</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04049919007893902</v>
+        <v>0.04042372736866059</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3683,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2044129208.647218</v>
+        <v>2485161418.479549</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08308956197889401</v>
+        <v>0.1046335084438902</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03711435417426365</v>
+        <v>0.03785573142703721</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3718,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4544900988.261998</v>
+        <v>3298449691.984494</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1259035083396537</v>
+        <v>0.1001695412672824</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03526312777001734</v>
+        <v>0.03875008398697387</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>104</v>
+      </c>
+      <c r="J93" t="n">
+        <v>233</v>
+      </c>
+      <c r="K93" t="n">
+        <v>60.59923336021904</v>
       </c>
     </row>
     <row r="94">
@@ -3062,17 +3761,24 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2050550498.495528</v>
+        <v>2317383717.901731</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1323274408846011</v>
+        <v>0.1382901620135508</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03025894209999139</v>
+        <v>0.0308628431387307</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3790,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2292035399.460969</v>
+        <v>2195454544.601855</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1102194767204768</v>
+        <v>0.1320738895491522</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04490620293404948</v>
+        <v>0.04395240278232811</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3825,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2373378271.18917</v>
+        <v>2055480868.204975</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1318733012210142</v>
+        <v>0.09486942707256642</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04423253868867267</v>
+        <v>0.04067765141961427</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3860,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3234361670.166225</v>
+        <v>5244274301.76079</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1121452694822344</v>
+        <v>0.1584514547534276</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02435900518827075</v>
+        <v>0.02891961782989445</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>113</v>
+      </c>
+      <c r="J97" t="n">
+        <v>234</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3895,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2377472374.938904</v>
+        <v>3705621803.176648</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1093605847057135</v>
+        <v>0.1075727945893905</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0296444656964982</v>
+        <v>0.02952987537114121</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>56</v>
+      </c>
+      <c r="J98" t="n">
+        <v>234</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2533160359.735092</v>
+        <v>2826778960.046138</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1398043315030423</v>
+        <v>0.1119117298657088</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03341188326789571</v>
+        <v>0.02420968467571429</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>3</v>
+      </c>
+      <c r="J99" t="n">
+        <v>211</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3604807888.814359</v>
+        <v>3236206023.654371</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1604696103175376</v>
+        <v>0.1516369761534501</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02145381755434722</v>
+        <v>0.01762032861370186</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
       </c>
+      <c r="I100" t="n">
+        <v>98</v>
+      </c>
+      <c r="J100" t="n">
+        <v>232</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3386111456.106864</v>
+        <v>3355395921.592635</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2030472520174214</v>
+        <v>0.1362678832949138</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04272253314726986</v>
+        <v>0.05216510279392734</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>18</v>
+      </c>
+      <c r="J101" t="n">
+        <v>179</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
